--- a/resources/LangMod/ZHTW/KiriaSources.xlsx
+++ b/resources/LangMod/ZHTW/KiriaSources.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Chara" sheetId="1" state="visible" r:id="rId3"/>
@@ -316,58 +316,9 @@
     <t xml:space="preserve">adv_kiria2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">「いつか私の製造者の魂を見つけて、殴ってやるの。」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">「人形愛好者には、まだまだ懲らしめが必要ね…。」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">「結局、私はスクラップじゃなかった。」</t>
-    </r>
+    <t xml:space="preserve">「いつか私の製造者の魂を見つけて、殴ってやるの。」
+「人形愛好者には、まだまだ懲らしめが必要ね…。」
+「結局、私はスクラップじゃなかった。」</t>
   </si>
   <si>
     <t xml:space="preserve">「私…さびついてしまったようです…」 </t>
@@ -872,7 +823,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">你收到了機利亞的地圖，找出那裡有什麼。</t>
+      <t xml:space="preserve">你收到了機利亞的地圖，找出那裡有什麼。\n（嘗試在世界地圖上挖掘。）</t>
     </r>
     <r>
       <rPr>
@@ -1386,108 +1337,112 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1690,688 +1645,688 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="S2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="2" t="s">
+      <c r="W2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AG2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AJ2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AL2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AL2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AR2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AR2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AU2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AV2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BJ2" s="2"/>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="2"/>
-      <c r="BM2" s="2"/>
-      <c r="BN2" s="2"/>
-      <c r="BO2" s="2"/>
-      <c r="BP2" s="2"/>
-      <c r="BQ2" s="2"/>
+      <c r="AV2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BQ2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="n">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="n">
         <f aca="false">MAX(B4:B10323)</f>
         <v>283</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="K3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="P3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="3" t="s">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="3" t="s">
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="2"/>
-      <c r="BO3" s="2"/>
-      <c r="BP3" s="2"/>
-      <c r="BQ3" s="2"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="6" t="n">
         <v>283</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="H4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="6" t="n">
         <v>2505</v>
       </c>
-      <c r="M4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5" t="s">
+      <c r="M4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="5" t="n">
+      <c r="P4" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="Q4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="5" t="s">
+      <c r="Q4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" s="7" t="n">
+      <c r="AA4" s="8" t="n">
         <v>1100</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AB4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AF4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AG4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AJ4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AS4" s="5" t="s">
+      <c r="AS4" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="6" t="n">
         <v>164</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="H5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="6" t="n">
         <v>1014</v>
       </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5" t="s">
+      <c r="M5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P5" s="5" t="n">
+      <c r="P5" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="Q5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5" t="s">
+      <c r="Q5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AA5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AB5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AG5" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="6" t="n">
         <v>123</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="H6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="6" t="n">
         <v>1507</v>
       </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5" t="s">
+      <c r="M6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="5" t="n">
+      <c r="P6" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="Q6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5" t="s">
+      <c r="Q6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="W6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="X6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AG6" s="5" t="s">
+      <c r="AG6" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="6" t="n">
         <v>86</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="H7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="6" t="n">
         <v>1427</v>
       </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5" t="s">
+      <c r="M7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="5" t="n">
+      <c r="P7" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="Q7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5" t="s">
+      <c r="Q7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="V7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="W7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="X7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AA7" s="5" t="s">
+      <c r="AA7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AB7" s="5" t="s">
+      <c r="AB7" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AG7" s="5" t="s">
+      <c r="AG7" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2401,163 +2356,163 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="142.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="113.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="142.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="38.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="113.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2610,335 +2565,335 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="24.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="24.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="5.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="6.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="12" t="s">
+      <c r="M2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="10" t="s">
+      <c r="S2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" s="10" t="s">
+      <c r="Z2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
+      <c r="AD2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+      <c r="A3" s="15" t="n">
         <f aca="false">MAX(A4:A10058)</f>
         <v>118</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="14" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="14" t="n">
+      <c r="L3" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="16" t="s">
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="16" t="s">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="17" t="n">
+      <c r="S3" s="13"/>
+      <c r="T3" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="14" t="s">
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="Z3" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10" t="s">
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="6" t="n">
         <v>118</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="O4" s="19" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="O4" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="Q4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Q4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2958,105 +2913,105 @@
   </sheetPr>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="215.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="208"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="215.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="208"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5" t="n">
+      <c r="I4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="N4" s="5" t="n">
+      <c r="N4" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,724 +3041,724 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="14.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="34.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="39.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="8.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="9.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="14.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="34.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="39.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AF1" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="L2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="T2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="21" t="s">
+      <c r="Y2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AF2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AK2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AK2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AM2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AN2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AO2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AU2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AU2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AW2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AX2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BJ2" s="2"/>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="2"/>
-      <c r="BM2" s="2"/>
-      <c r="BN2" s="2"/>
-      <c r="BO2" s="2"/>
-      <c r="BP2" s="2"/>
-      <c r="BQ2" s="2"/>
-      <c r="BR2" s="2"/>
-      <c r="BS2" s="2"/>
-      <c r="BT2" s="2"/>
+      <c r="AY2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BQ2" s="3"/>
+      <c r="BR2" s="3"/>
+      <c r="BS2" s="3"/>
+      <c r="BT2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="3" t="n">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="4" t="s">
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="3" t="s">
+      <c r="X3" s="3"/>
+      <c r="Y3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="22" t="n">
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="23" t="n">
         <v>100</v>
       </c>
-      <c r="AB3" s="23" t="n">
+      <c r="AB3" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="3" t="s">
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="22" t="n">
+      <c r="AF3" s="23" t="n">
         <v>1000</v>
       </c>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="3" t="s">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="2"/>
-      <c r="BO3" s="2"/>
-      <c r="BP3" s="2"/>
-      <c r="BQ3" s="2"/>
-      <c r="BR3" s="2"/>
-      <c r="BS3" s="2"/>
-      <c r="BT3" s="2"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
+      <c r="BR3" s="3"/>
+      <c r="BS3" s="3"/>
+      <c r="BT3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="N4" s="5" t="n">
+      <c r="N4" s="6" t="n">
         <v>1713</v>
       </c>
-      <c r="S4" s="5" t="n">
+      <c r="S4" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Y4" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AA4" s="5" t="n">
+      <c r="AA4" s="6" t="n">
         <v>3500</v>
       </c>
-      <c r="AB4" s="5" t="n">
+      <c r="AB4" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="AC4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="5" t="n">
+      <c r="AC4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="AE4" s="5" t="n">
+      <c r="AE4" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="AF4" s="5" t="n">
+      <c r="AF4" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="AG4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="5" t="s">
+      <c r="AG4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AJ4" s="5" t="n">
+      <c r="AJ4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AT4" s="5" t="s">
+      <c r="AT4" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AY4" s="6" t="s">
+      <c r="AY4" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="AZ4" s="18" t="s">
+      <c r="AZ4" s="19" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="N5" s="5" t="n">
+      <c r="N5" s="6" t="n">
         <v>1810</v>
       </c>
-      <c r="S5" s="5" t="n">
+      <c r="S5" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Y5" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AA5" s="5" t="n">
+      <c r="AA5" s="6" t="n">
         <v>1500</v>
       </c>
-      <c r="AB5" s="5" t="n">
+      <c r="AB5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AC5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="5" t="n">
+      <c r="AC5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="AF5" s="5" t="n">
+      <c r="AF5" s="6" t="n">
         <v>1500</v>
       </c>
-      <c r="AG5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AG5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AJ5" s="5" t="n">
+      <c r="AJ5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AT5" s="5" t="s">
+      <c r="AT5" s="6" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="N6" s="5" t="n">
+      <c r="N6" s="6" t="n">
         <v>549</v>
       </c>
-      <c r="S6" s="5" t="n">
+      <c r="S6" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="W6" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="Y6" s="5" t="s">
+      <c r="Y6" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AA6" s="5" t="n">
+      <c r="AA6" s="6" t="n">
         <v>1500</v>
       </c>
-      <c r="AB6" s="5" t="n">
+      <c r="AB6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AC6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="5" t="n">
+      <c r="AC6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="AF6" s="5" t="n">
+      <c r="AF6" s="6" t="n">
         <v>200</v>
       </c>
-      <c r="AG6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="5" t="s">
+      <c r="AG6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AJ6" s="5" t="n">
+      <c r="AJ6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AV6" s="5" t="s">
+      <c r="AV6" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AY6" s="6" t="s">
+      <c r="AY6" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="AZ6" s="18" t="s">
+      <c r="AZ6" s="19" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3825,7 +3780,7 @@
   </sheetPr>
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
@@ -3833,324 +3788,324 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="40.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="39.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="5.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="4.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="40.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="39.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="6.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="W1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="24" t="s">
+      <c r="A2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="24" t="s">
+      <c r="H2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="24" t="s">
+      <c r="L2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="24" t="s">
+      <c r="R2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
+      <c r="U2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="24" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="F3" s="24" t="n">
+      <c r="F3" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="24" t="n">
+      <c r="G3" s="25" t="n">
         <v>100</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="24" t="s">
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="24" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="G4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="G4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="P4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5" t="s">
+      <c r="P4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="V4" s="19" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="G5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5" t="s">
+      <c r="P5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="V5" s="19" t="s">
         <v>238</v>
       </c>
     </row>

--- a/resources/LangMod/ZHTW/KiriaSources.xlsx
+++ b/resources/LangMod/ZHTW/KiriaSources.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Chara" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="243">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -823,7 +823,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">你收到了機利亞的地圖，找出那裡有什麼。\n（嘗試在世界地圖上挖掘。）</t>
+      <t xml:space="preserve">你收到了機利亞的地圖，找出那裡有什麼。
+（嘗試在世界地圖上挖掘。）</t>
     </r>
     <r>
       <rPr>
@@ -1064,6 +1065,18 @@
     <t xml:space="preserve">它具有類似生物的基因特徵。</t>
   </si>
   <si>
+    <t xml:space="preserve">corpse_ryozu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">653,652,656,657,658,659,-659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KiriaCorpse</t>
+  </si>
+  <si>
     <t xml:space="preserve">parent</t>
   </si>
   <si>
@@ -1173,7 +1186,7 @@
     <numFmt numFmtId="166" formatCode="#,##0"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1294,6 +1307,13 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1337,7 +1357,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1436,6 +1456,10 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1640,7 +1664,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="V37" activeCellId="0" sqref="V37"/>
+      <selection pane="bottomLeft" activeCell="V37" activeCellId="1" sqref="F7 V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2351,7 +2375,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="C19" activeCellId="1" sqref="F7 C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2535,7 +2559,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N22" activeCellId="0" sqref="N22"/>
+      <selection pane="topLeft" activeCell="N22" activeCellId="1" sqref="F7 N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2560,7 +2584,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="T8" activeCellId="0" sqref="T8"/>
+      <selection pane="bottomLeft" activeCell="D4" activeCellId="1" sqref="F7 D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2913,10 +2937,10 @@
   </sheetPr>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="M4" activeCellId="1" sqref="F7 M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3008,7 +3032,7 @@
       <c r="L4" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="10" t="s">
         <v>146</v>
       </c>
       <c r="N4" s="6" t="n">
@@ -3031,12 +3055,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BT6"/>
+  <dimension ref="A1:BT7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="AY25" activeCellId="0" sqref="AY25"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3762,6 +3786,102 @@
         <v>205</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="0"/>
+      <c r="D7" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="0"/>
+      <c r="F7" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J7" s="0"/>
+      <c r="K7" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L7" s="0"/>
+      <c r="M7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="1" t="n">
+        <v>2686</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF7" s="1" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AG7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="0"/>
+      <c r="AL7" s="0"/>
+      <c r="AM7" s="0"/>
+      <c r="AN7" s="0"/>
+      <c r="AO7" s="0"/>
+      <c r="AP7" s="0"/>
+      <c r="AQ7" s="0"/>
+      <c r="AR7" s="0"/>
+      <c r="AS7" s="0"/>
+      <c r="AT7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU7" s="0"/>
+      <c r="AV7" s="0"/>
+      <c r="AW7" s="0"/>
+      <c r="AX7" s="0"/>
+      <c r="AY7" s="0"/>
+      <c r="AZ7" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3783,7 +3903,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="H10" activeCellId="1" sqref="F7 H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3815,215 +3935,215 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="I1" s="25" t="s">
+      <c r="H1" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="N1" s="25" t="s">
+      <c r="J1" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="K1" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="O1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="T1" s="25" t="s">
+      <c r="P1" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="Q1" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="R1" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="S1" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="W1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="A2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="25" t="s">
+      <c r="H2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="25" t="s">
+      <c r="J2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="25" t="s">
+      <c r="L2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="25" t="s">
+      <c r="R2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
+      <c r="U2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="F3" s="25" t="n">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="25" t="n">
+      <c r="G3" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="25" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>27</v>
@@ -4035,16 +4155,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>0</v>
@@ -4053,30 +4173,30 @@
         <v>0</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="V4" s="19" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>1</v>
@@ -4088,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>63</v>
@@ -4100,13 +4220,13 @@
         <v>0</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="V5" s="19" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/resources/LangMod/ZHTW/KiriaSources.xlsx
+++ b/resources/LangMod/ZHTW/KiriaSources.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Chara" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="250">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -888,6 +888,27 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">kiria_map_replace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost map?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mod_KiriaDLC.QuestMapReplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiriaDLC,mapReplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地図をなくしちゃったの？新しいのを描きますよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你把地圖丟了嗎？我可以畫一個新的。</t>
+  </si>
+  <si>
     <t xml:space="preserve">unknown_JP</t>
   </si>
   <si>
@@ -1180,13 +1201,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
-    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1288,6 +1308,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1357,7 +1384,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1418,7 +1445,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1434,16 +1461,28 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1456,10 +1495,6 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1664,7 +1699,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="V37" activeCellId="1" sqref="F7 V37"/>
+      <selection pane="bottomLeft" activeCell="V37" activeCellId="0" sqref="V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2375,7 +2410,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C19" activeCellId="1" sqref="F7 C19"/>
+      <selection pane="bottomLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2559,7 +2594,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N22" activeCellId="1" sqref="F7 N22"/>
+      <selection pane="topLeft" activeCell="N22" activeCellId="0" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2584,7 +2619,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D4" activeCellId="1" sqref="F7 D4"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2818,7 +2853,7 @@
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="n">
         <f aca="false">MAX(A4:A10058)</f>
-        <v>118</v>
+        <v>1119</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="16" t="s">
@@ -2880,13 +2915,13 @@
       <c r="AG3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
-        <v>118</v>
+      <c r="A4" s="19" t="n">
+        <v>1119</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>125</v>
       </c>
       <c r="F4" s="6"/>
@@ -2895,7 +2930,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="21" t="s">
         <v>123</v>
       </c>
       <c r="P4" s="6" t="s">
@@ -2935,12 +2970,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="M4" activeCellId="1" sqref="F7 M4"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3011,7 +3046,7 @@
       <c r="B4" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>142</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3038,6 +3073,42 @@
       <c r="N4" s="6" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3057,7 +3128,7 @@
   </sheetPr>
   <dimension ref="A1:BT7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
@@ -3127,22 +3198,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>32</v>
@@ -3163,13 +3234,13 @@
         <v>10</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>8</v>
@@ -3190,15 +3261,15 @@
         <v>13</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA1" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA1" s="25" t="s">
         <v>111</v>
       </c>
       <c r="AB1" s="3" t="s">
@@ -3211,13 +3282,13 @@
         <v>17</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF1" s="22" t="s">
-        <v>158</v>
+        <v>164</v>
+      </c>
+      <c r="AF1" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AH1" s="3" t="s">
         <v>21</v>
@@ -3226,19 +3297,19 @@
         <v>29</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AO1" s="3" t="s">
         <v>37</v>
@@ -3247,28 +3318,28 @@
         <v>38</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AV1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AY1" s="2" t="s">
         <v>46</v>
@@ -3374,7 +3445,7 @@
       <c r="Z2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="22" t="s">
+      <c r="AA2" s="25" t="s">
         <v>49</v>
       </c>
       <c r="AB2" s="3" t="s">
@@ -3389,7 +3460,7 @@
       <c r="AE2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="22" t="s">
+      <c r="AF2" s="25" t="s">
         <v>49</v>
       </c>
       <c r="AG2" s="3" t="s">
@@ -3478,14 +3549,14 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="4" t="s">
@@ -3511,23 +3582,23 @@
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Z3" s="3"/>
-      <c r="AA3" s="23" t="n">
+      <c r="AA3" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="AB3" s="24" t="n">
+      <c r="AB3" s="27" t="n">
         <v>1</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AD3" s="3"/>
       <c r="AE3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="23" t="n">
+      <c r="AF3" s="26" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" s="3"/>
@@ -3575,31 +3646,31 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>180</v>
+        <v>185</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>187</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K4" s="6" t="n">
         <v>100</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>1713</v>
@@ -3608,10 +3679,10 @@
         <v>100</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AA4" s="6" t="n">
         <v>3500</v>
@@ -3635,36 +3706,36 @@
         <v>0</v>
       </c>
       <c r="AH4" s="6" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AJ4" s="6" t="n">
         <v>1</v>
       </c>
       <c r="AT4" s="6" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AY4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="AZ4" s="19" t="s">
-        <v>188</v>
+        <v>194</v>
+      </c>
+      <c r="AZ4" s="20" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>191</v>
+        <v>178</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>198</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K5" s="6" t="n">
         <v>100</v>
@@ -3679,10 +3750,10 @@
         <v>100</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AA5" s="6" t="n">
         <v>1500</v>
@@ -3706,13 +3777,13 @@
         <v>0</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AJ5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="AT5" s="6" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3720,22 +3791,22 @@
         <v>127</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>198</v>
+        <v>178</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>205</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>100</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>549</v>
@@ -3744,10 +3815,10 @@
         <v>100</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AA6" s="6" t="n">
         <v>1500</v>
@@ -3771,70 +3842,55 @@
         <v>0</v>
       </c>
       <c r="AH6" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="AJ6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AY6" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="AZ6" s="19" t="s">
-        <v>205</v>
+        <v>211</v>
+      </c>
+      <c r="AZ6" s="20" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="0"/>
-      <c r="D7" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="0"/>
-      <c r="F7" s="19" t="s">
+      <c r="D7" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
       <c r="I7" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J7" s="0"/>
+        <v>214</v>
+      </c>
       <c r="K7" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="L7" s="0"/>
       <c r="M7" s="1" t="s">
         <v>123</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
+        <v>215</v>
+      </c>
       <c r="S7" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
       <c r="W7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="X7" s="0"/>
       <c r="Y7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Z7" s="0"/>
       <c r="AA7" s="1" t="n">
         <v>2686</v>
       </c>
@@ -3857,30 +3913,14 @@
         <v>0</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AI7" s="0"/>
+        <v>216</v>
+      </c>
       <c r="AJ7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AK7" s="0"/>
-      <c r="AL7" s="0"/>
-      <c r="AM7" s="0"/>
-      <c r="AN7" s="0"/>
-      <c r="AO7" s="0"/>
-      <c r="AP7" s="0"/>
-      <c r="AQ7" s="0"/>
-      <c r="AR7" s="0"/>
-      <c r="AS7" s="0"/>
       <c r="AT7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AU7" s="0"/>
-      <c r="AV7" s="0"/>
-      <c r="AW7" s="0"/>
-      <c r="AX7" s="0"/>
-      <c r="AY7" s="0"/>
-      <c r="AZ7" s="0"/>
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3903,7 +3943,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H10" activeCellId="1" sqref="F7 H10"/>
+      <selection pane="bottomLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3935,215 +3975,215 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" s="26" t="s">
+      <c r="H1" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="O1" s="26" t="s">
+      <c r="J1" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="O1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="U1" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="W1" s="26" t="s">
+      <c r="P1" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="W1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="X1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="A2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="26" t="s">
+      <c r="H2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="26" t="s">
+      <c r="J2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="26" t="s">
+      <c r="L2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="26" t="s">
+      <c r="R2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="T2" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
+      <c r="U2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="F3" s="26" t="n">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="26" t="n">
+      <c r="G3" s="28" t="n">
         <v>100</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="26" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>229</v>
+        <v>234</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>236</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>27</v>
@@ -4155,48 +4195,48 @@
         <v>0</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="P4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="S4" s="6" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="V4" s="19" t="s">
-        <v>237</v>
+        <v>243</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>240</v>
+        <v>246</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>1</v>
@@ -4208,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>63</v>
@@ -4220,13 +4260,13 @@
         <v>0</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="V5" s="19" t="s">
-        <v>242</v>
+        <v>248</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
